--- a/Git/03_まとめ/Gitのホスティングサービス比較（大橋）.xlsx
+++ b/Git/03_まとめ/Gitのホスティングサービス比較（大橋）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>GitとSubversion</t>
     <phoneticPr fontId="2"/>
@@ -162,14 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>GitBucket、GitLabのメリット
-GitBucket：JVMで動く。（Javaアプリケーションサーバーで動作させるためのWARファイルが公開されている）</t>
-    <rPh sb="36" eb="37">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>導入コスト</t>
     <rPh sb="0" eb="2">
       <t>ドウニュウ</t>
@@ -177,70 +169,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>運用コスト</t>
-    <rPh sb="0" eb="2">
-      <t>ウンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・GitHubを閉じた環境で使いたい場合は、有料となる（無料だとオンラインでリポジトリが公開される）→提案するにはハードル高い
-・GitBucketはユーザー数により有料（５ユーザーまでなら無料）
-・GitLabは無料</t>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ユウリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ムリョウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>テイアン</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ユウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・GitHub、GitBucketは導入コストが軽い
-・GitLabは導入コストが重い</t>
-    <rPh sb="18" eb="20">
-      <t>ドウニュウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カル</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>×</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -257,6 +185,93 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GitHubのデメリット
+GitBucket、GitLabのメリット
+GitBucket：JVMで動く。（Javaアプリケーションサーバーで動作させるためのWARファイルが公開されている）</t>
+    <rPh sb="49" eb="50">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・GitBucketはJava限定だが導入が簡単。提供されているwarファイルをアプリケーションサーバーにデプロイするだけ。
+・GitLabは導入コストが重い</t>
+    <rPh sb="15" eb="17">
+      <t>ゲンテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>費用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・GitHubを閉じた環境で使いたい場合は、有料となる（無料だとオンラインでリポジトリが公開される）
+・GitBucketはユーザー数により有料（５ユーザーまでなら無料）
+・GitLabは無料（サポートをつける場合は有料）</t>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ムリョウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ユウリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -387,18 +402,18 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>44</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="8" name="図 7"/>
+            <xdr:cNvPr id="4" name="図 3"/>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="【表】ホスティングサービスの比較!$B$4:$F$10" spid="_x0000_s3166"/>
+                  <a14:cameraTool cellRange="【表】ホスティングサービスの比較!$B$4:$F$10" spid="_x0000_s3170"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -413,7 +428,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="200025" y="1400175"/>
-              <a:ext cx="8639175" cy="3000375"/>
+              <a:ext cx="8648700" cy="3409950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -725,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK3" sqref="AK3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AZ15" sqref="AZ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -752,49 +767,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="7"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="C37" r:id="rId1" location="backup-script"/>
-    <hyperlink ref="C40" r:id="rId2"/>
+    <hyperlink ref="C29" r:id="rId1" location="backup-script"/>
+    <hyperlink ref="C32" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
@@ -808,7 +823,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="B4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -848,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1</v>
@@ -871,10 +886,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -888,13 +903,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
@@ -902,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>27</v>
@@ -910,19 +925,19 @@
     </row>
     <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
